--- a/src/test/resources/testdata/DRSTestDataTesting.xlsx
+++ b/src/test/resources/testdata/DRSTestDataTesting.xlsx
@@ -5134,7 +5134,7 @@
       </c>
       <c r="G2" s="22">
         <f ca="1">(TODAY() - H2) + I2</f>
-        <v>29711</v>
+        <v>29715</v>
       </c>
       <c r="H2" s="22">
         <v>42818</v>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="G3" s="22">
         <f t="shared" ref="G3:G11" ca="1" si="0">(TODAY() - H3) + I3</f>
-        <v>29548</v>
+        <v>29552</v>
       </c>
       <c r="H3" s="22">
         <v>42818</v>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="G4" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>32398</v>
+        <v>32402</v>
       </c>
       <c r="H4" s="22">
         <v>42818</v>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="G5" s="22">
         <f ca="1">(TODAY() - H5) + I5</f>
-        <v>34991</v>
+        <v>34995</v>
       </c>
       <c r="H5" s="22">
         <v>42818</v>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="G6" s="22">
         <f ca="1">(TODAY() - H6) + I6</f>
-        <v>31465</v>
+        <v>31469</v>
       </c>
       <c r="H6" s="22">
         <v>42818</v>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="G7" s="22">
         <f ca="1">(TODAY() - H7) + I7</f>
-        <v>32296</v>
+        <v>32300</v>
       </c>
       <c r="H7" s="22">
         <v>42818</v>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="G8" s="22">
         <f ca="1">(TODAY() - H8) + I8</f>
-        <v>31080</v>
+        <v>31084</v>
       </c>
       <c r="H8" s="22">
         <v>42818</v>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="G10" s="22">
         <f ca="1">(TODAY() - H10) + I10</f>
-        <v>34820</v>
+        <v>34824</v>
       </c>
       <c r="H10" s="22">
         <v>42818</v>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="G11" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>27319</v>
+        <v>27323</v>
       </c>
       <c r="H11" s="22">
         <v>42818</v>

--- a/src/test/resources/testdata/DRSTestDataTesting.xlsx
+++ b/src/test/resources/testdata/DRSTestDataTesting.xlsx
@@ -4966,8 +4966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD5428A-76D9-401C-A3EA-36F3D393C743}">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
